--- a/总笔记整理/总笔记整理表.xlsx
+++ b/总笔记整理/总笔记整理表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20205" windowHeight="7635"/>
+    <workbookView windowWidth="20130" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="总笔记整理" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="100">
   <si>
     <t>内存</t>
   </si>
@@ -36,6 +36,9 @@
     <t>文件路径</t>
   </si>
   <si>
+    <t>git 上传记录</t>
+  </si>
+  <si>
     <t>视频路径</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
   </si>
   <si>
     <t>软件路径</t>
+  </si>
+  <si>
+    <t>以后以git 为准，左右操作都在git仓库上</t>
   </si>
   <si>
     <t>疑问位置</t>
@@ -251,7 +257,7 @@
     <t>视频目录</t>
   </si>
   <si>
-    <t>课程总目录</t>
+    <t>课程总目录  培训阶段记录</t>
   </si>
   <si>
     <t>G:\本地磁盘e\web1802视频</t>
@@ -341,11 +347,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,22 +368,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="3" tint="0.4"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -488,10 +485,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -504,14 +501,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,139 +533,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,36 +714,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,15 +751,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -764,15 +762,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,6 +805,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -841,6 +839,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -849,10 +856,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -861,159 +868,177 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1028,11 +1053,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1382,12 +1407,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:XFD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1397,13 +1422,14 @@
     <col min="4" max="4" width="24.875" customWidth="1"/>
     <col min="5" max="5" width="34.9916666666667" customWidth="1"/>
     <col min="6" max="6" width="14.1166666666667" customWidth="1"/>
-    <col min="7" max="8" width="32" style="4" customWidth="1"/>
+    <col min="7" max="7" width="32" style="4" customWidth="1"/>
+    <col min="8" max="8" width="32" style="5" customWidth="1"/>
     <col min="9" max="9" width="37.375" customWidth="1"/>
     <col min="10" max="10" width="41.5" customWidth="1"/>
     <col min="11" max="11" width="26.6166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1422,10 +1448,10 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -1437,552 +1463,716 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="33" customHeight="1" spans="1:11">
-      <c r="A2" s="5" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="27" spans="1:12">
+      <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" customFormat="1" spans="1:8">
+      <c r="A4" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="6"/>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="H4" s="4" t="s">
+    </row>
+    <row r="5" customFormat="1" spans="1:10">
+      <c r="A5" s="11"/>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="6"/>
+      <c r="C5"/>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="12"/>
+      <c r="H5"/>
+      <c r="I5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="J5" t="s">
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="11"/>
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="6"/>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="12"/>
+      <c r="H6"/>
+      <c r="K6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="6"/>
-      <c r="B7" t="s">
+    <row r="7" customFormat="1" spans="1:9">
+      <c r="A7" s="11"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" s="6"/>
+      <c r="H7"/>
+      <c r="I7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="8" customFormat="1" spans="1:8">
+      <c r="A8" s="11"/>
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="C8"/>
+      <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="6"/>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="6"/>
+    </row>
+    <row r="9" customFormat="1" spans="1:8">
+      <c r="A9" s="11"/>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C9"/>
       <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="F9"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:10">
+      <c r="A10" s="11"/>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" s="1" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="6"/>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I10" t="s">
+      <c r="F10"/>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6"/>
-      <c r="D11" s="7" t="s">
+    <row r="11" customFormat="1" spans="1:10">
+      <c r="A11" s="11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11"/>
+      <c r="G11" s="6"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="6"/>
-      <c r="C12" s="8" t="s">
+    <row r="12" customFormat="1" spans="1:7">
+      <c r="A12" s="11"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" t="s">
+      <c r="F12"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:7">
+      <c r="A13" s="11"/>
+      <c r="B13"/>
+      <c r="C13" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="6"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" t="s">
         <v>41</v>
       </c>
-      <c r="I13" t="s">
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:10">
+      <c r="A14" s="11"/>
+      <c r="B14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="6"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14"/>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14" t="s">
         <v>44</v>
       </c>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="6"/>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7" t="s">
+    </row>
+    <row r="15" customFormat="1" spans="1:7">
+      <c r="A15" s="11"/>
+      <c r="B15"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I15" t="s">
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:10">
+      <c r="A16" s="11"/>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="6"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16"/>
-      <c r="I16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="6"/>
-      <c r="C17" s="8"/>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:10">
+      <c r="A17" s="11"/>
+      <c r="B17"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17"/>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="6"/>
-      <c r="C18" s="8"/>
+    </row>
+    <row r="18" customFormat="1" spans="1:7">
+      <c r="A18" s="11"/>
+      <c r="B18"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="13" t="s">
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="6"/>
-      <c r="C19" s="9"/>
+        <v>49</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:7">
+      <c r="A19" s="11"/>
+      <c r="B19"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="13" t="s">
         <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="6"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:7">
+      <c r="A20" s="11"/>
+      <c r="B20"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:7">
+      <c r="A21" s="11"/>
+      <c r="B21"/>
+      <c r="C21"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="6"/>
+      <c r="E21" s="13"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:7">
+      <c r="A22" s="11"/>
+      <c r="B22"/>
+      <c r="C22"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="6"/>
+      <c r="E22" s="13"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:7">
+      <c r="A23" s="11"/>
+      <c r="B23"/>
+      <c r="C23"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="6"/>
+      <c r="E23" s="13"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" customFormat="1" spans="1:7">
+      <c r="A24" s="11"/>
+      <c r="B24"/>
+      <c r="C24"/>
       <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="6"/>
-      <c r="D25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="4" t="s">
+      <c r="E24" s="13"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" customFormat="1" spans="1:7">
+      <c r="A25" s="11"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" s="1"/>
+      <c r="E25"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" customFormat="1" spans="1:9">
+      <c r="A26" s="11"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="6"/>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>58</v>
       </c>
-      <c r="E26" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="6"/>
+      <c r="F26"/>
+      <c r="G26" s="6"/>
+      <c r="H26"/>
+      <c r="I26" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:9">
+      <c r="A27" s="11"/>
+      <c r="B27"/>
+      <c r="C27"/>
       <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27"/>
+      <c r="G27" s="6"/>
+      <c r="H27"/>
+      <c r="I27" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="K27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="6"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="11"/>
       <c r="D28" t="s">
         <v>61</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28"/>
+      <c r="G28" s="6"/>
+      <c r="H28"/>
+      <c r="L28" t="s">
         <v>62</v>
       </c>
-      <c r="K28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="6"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="11"/>
       <c r="D29" t="s">
         <v>63</v>
       </c>
-      <c r="K29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="6"/>
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29"/>
+      <c r="L29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="11"/>
       <c r="D30" t="s">
-        <v>64</v>
-      </c>
-      <c r="K30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30"/>
+      <c r="L30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="11"/>
       <c r="D31" t="s">
-        <v>65</v>
-      </c>
-      <c r="K31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31"/>
+      <c r="L31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="11"/>
       <c r="D32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="K32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="6"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32" s="6"/>
+      <c r="H32"/>
+      <c r="L32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="11"/>
       <c r="D33" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="K33" t="s">
+      <c r="E33" s="16" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="6"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33"/>
+      <c r="L33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="11"/>
       <c r="D34" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34"/>
+      <c r="L34" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="11" t="s">
+    </row>
+    <row r="35" customFormat="1" spans="1:7">
+      <c r="A35" s="11"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="6"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="6"/>
-      <c r="D36" t="s">
+      <c r="E35" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F35" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="7"/>
-      <c r="I36" s="7" t="s">
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" customFormat="1" spans="1:7">
+      <c r="A36" s="11"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" customFormat="1" spans="1:10">
+      <c r="A37" s="11"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="6"/>
-      <c r="D37" t="s">
+      <c r="E37" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="13"/>
+      <c r="G37" s="18">
+        <v>1</v>
+      </c>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G37" t="s">
+    </row>
+    <row r="38" customFormat="1" spans="1:8">
+      <c r="A38" s="11"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="6"/>
-      <c r="D38" t="s">
+      <c r="E38" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="6"/>
-      <c r="B39" t="s">
+      <c r="F38"/>
+      <c r="G38" s="6"/>
+      <c r="H38" t="s">
         <v>80</v>
       </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:7">
+      <c r="A39" s="11"/>
+      <c r="B39"/>
+      <c r="C39"/>
       <c r="D39" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39"/>
+      <c r="F39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" customFormat="1" spans="1:10">
+      <c r="A40" s="11"/>
+      <c r="B40" t="s">
         <v>82</v>
       </c>
-      <c r="I39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="6"/>
-      <c r="B40" t="s">
-        <v>80</v>
-      </c>
+      <c r="C40"/>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40"/>
+      <c r="G40" s="6">
+        <v>1</v>
+      </c>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:10">
+      <c r="A41" s="11"/>
+      <c r="B41" t="s">
         <v>82</v>
       </c>
-      <c r="F40"/>
-      <c r="I40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="6"/>
-      <c r="B41" t="s">
-        <v>24</v>
-      </c>
+      <c r="C41"/>
       <c r="D41" t="s">
         <v>83</v>
       </c>
-      <c r="F41" t="s">
+      <c r="E41" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="6"/>
+      <c r="F41"/>
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:7">
+      <c r="A42" s="11"/>
       <c r="B42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42" t="s">
         <v>85</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42"/>
+      <c r="F42" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" customFormat="1" spans="1:7">
+      <c r="A43" s="11"/>
       <c r="B43" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C43"/>
       <c r="D43" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" s="3" customFormat="1" spans="7:8">
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" customFormat="1" spans="1:7">
+      <c r="A44" s="11"/>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="8" t="s">
-        <v>89</v>
+      <c r="A45" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="8"/>
+      <c r="A46" s="5"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="8"/>
+      <c r="A47" s="5"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="8"/>
+      <c r="A48" s="5"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="8"/>
+      <c r="A49" s="5"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="8"/>
+      <c r="A50" s="5"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="8"/>
+      <c r="A51" s="5"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="8"/>
+      <c r="A52" s="5"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="8"/>
+      <c r="A53" s="5"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="8"/>
+      <c r="A54" s="5"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="8"/>
+      <c r="A55" s="5"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="8"/>
+      <c r="A56" s="5"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="8"/>
+      <c r="A57" s="5"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="8"/>
+      <c r="A58" s="5"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="8"/>
+      <c r="A59" s="5"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="8"/>
+      <c r="A60" s="5"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="8"/>
+      <c r="A61" s="5"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="8"/>
+      <c r="A62" s="5"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="8"/>
+      <c r="A63" s="5"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="8"/>
+      <c r="A64" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="A3:A43"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="A4:A44"/>
     <mergeCell ref="A45:A64"/>
-    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="C13:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2008,40 +2198,40 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
         <v>96</v>
-      </c>
-      <c r="C3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
